--- a/Nhom06_XayDungHeThongBanDienThoai.xlsx
+++ b/Nhom06_XayDungHeThongBanDienThoai.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crisc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7ff2a1832fce484/Documents/GitHub/DACNMP-Nhom06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0637F393-D529-4604-81B5-B9B1BDB749DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{0637F393-D529-4604-81B5-B9B1BDB749DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2206F29A-8F62-455F-AC8E-9C1B0C28EAE5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Information" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>I. Requirements</t>
   </si>
@@ -203,6 +203,15 @@
   </si>
   <si>
     <t>Công</t>
+  </si>
+  <si>
+    <t>Tín</t>
+  </si>
+  <si>
+    <t>Khánh</t>
+  </si>
+  <si>
+    <t>Thành</t>
   </si>
 </sst>
 </file>
@@ -4346,7 +4355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
@@ -5540,9 +5549,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7:B11"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5661,7 +5670,9 @@
       <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E7" s="7">
         <v>45916</v>
       </c>
@@ -5707,7 +5718,9 @@
       <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="E9" s="7">
         <v>45916</v>
       </c>
@@ -5753,7 +5766,9 @@
       <c r="C11" s="5">
         <v>2</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="E11" s="7">
         <v>45916</v>
       </c>

--- a/Nhom06_XayDungHeThongBanDienThoai.xlsx
+++ b/Nhom06_XayDungHeThongBanDienThoai.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7ff2a1832fce484/Documents/GitHub/DACNMP-Nhom06/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GitHub\DACNMP-Nhom06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{0637F393-D529-4604-81B5-B9B1BDB749DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2206F29A-8F62-455F-AC8E-9C1B0C28EAE5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D18F32-54C7-4BE0-832E-CA1073C51676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>I. Requirements</t>
   </si>
@@ -213,12 +213,39 @@
   <si>
     <t>Thành</t>
   </si>
+  <si>
+    <t>Actor: là khách hàng vãng lai tôi muốn</t>
+  </si>
+  <si>
+    <t>Xem trang chủ</t>
+  </si>
+  <si>
+    <t>Xem danh sách sản phẩm</t>
+  </si>
+  <si>
+    <t>Xem chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>Xem sản phẩm so sánh</t>
+  </si>
+  <si>
+    <t>Quản lý giỏ hàng(Thêm, xóa, tăng, giảm)</t>
+  </si>
+  <si>
+    <t>Nhắn tin với người bán</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>công</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -271,13 +298,55 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
-      <color rgb="FF0000D4"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,8 +383,14 @@
         <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -519,11 +594,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -572,7 +706,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -583,13 +716,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,7 +981,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:Q22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -823,25 +998,25 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -850,23 +1025,23 @@
       <c r="W3" s="3"/>
     </row>
     <row r="4" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
@@ -875,23 +1050,23 @@
       <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -900,23 +1075,23 @@
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -925,23 +1100,23 @@
       <c r="W6" s="3"/>
     </row>
     <row r="7" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -950,23 +1125,23 @@
       <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -975,23 +1150,23 @@
       <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -1000,23 +1175,23 @@
       <c r="W9" s="3"/>
     </row>
     <row r="10" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -1025,23 +1200,23 @@
       <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1050,23 +1225,23 @@
       <c r="W11" s="3"/>
     </row>
     <row r="12" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -1075,23 +1250,23 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -1100,23 +1275,23 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -1125,23 +1300,23 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -1150,23 +1325,23 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -1175,23 +1350,23 @@
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -1200,23 +1375,23 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -1225,23 +1400,23 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -1250,23 +1425,23 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -1275,23 +1450,23 @@
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -1300,23 +1475,23 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -3194,14 +3369,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4357,7 +4532,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4468,44 +4643,84 @@
       <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="47"/>
     </row>
     <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
+      <c r="A14" s="45">
+        <v>1</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="45">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="30"/>
+      <c r="A15" s="45">
+        <v>2</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="45">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="30"/>
+      <c r="A16" s="45">
+        <v>3</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="45">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="30"/>
+      <c r="A17" s="45">
+        <v>4</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="45">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="30"/>
+      <c r="A18" s="45">
+        <v>5</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="45">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="30"/>
+      <c r="A19" s="45">
+        <v>6</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="45">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="28"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
@@ -5551,7 +5766,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5569,18 +5784,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -5594,10 +5809,10 @@
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
@@ -5647,18 +5862,18 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="41"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -5805,37 +6020,197 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41"/>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-    </row>
-    <row r="19" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51">
+        <v>1</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="59">
+        <v>3</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="7">
+        <v>45924</v>
+      </c>
+      <c r="F16" s="54">
+        <v>45667</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="51">
+        <v>2</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="59">
+        <v>3</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="7">
+        <v>45924</v>
+      </c>
+      <c r="F17" s="54">
+        <v>45668</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51">
+        <v>3</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="59">
+        <v>2</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="7">
+        <v>45924</v>
+      </c>
+      <c r="F18" s="54">
+        <v>45669</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51">
+        <v>4</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="59">
+        <v>3</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="7">
+        <v>45924</v>
+      </c>
+      <c r="F19" s="54">
+        <v>45670</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51">
+        <v>5</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="59">
+        <v>5</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="7">
+        <v>45924</v>
+      </c>
+      <c r="F20" s="54">
+        <v>45671</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51">
+        <v>6</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="59">
+        <v>2</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="7">
+        <v>45925</v>
+      </c>
+      <c r="F21" s="54">
+        <v>45672</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6805,7 +7180,8 @@
     <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A15:J15"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>

--- a/Nhom06_XayDungHeThongBanDienThoai.xlsx
+++ b/Nhom06_XayDungHeThongBanDienThoai.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GitHub\DACNMP-Nhom06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lepha\Desktop\CNPMNC\DACNMP-Nhom06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D18F32-54C7-4BE0-832E-CA1073C51676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF691702-CAD7-4790-ADB4-9A2D431C2B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Information" sheetId="1" r:id="rId1"/>
@@ -706,21 +706,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -742,18 +727,8 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -763,6 +738,31 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,7 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:Q22"/>
     </sheetView>
   </sheetViews>
@@ -998,25 +998,25 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -1025,23 +1025,23 @@
       <c r="W3" s="3"/>
     </row>
     <row r="4" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
@@ -1050,23 +1050,23 @@
       <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -1075,23 +1075,23 @@
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -1100,23 +1100,23 @@
       <c r="W6" s="3"/>
     </row>
     <row r="7" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -1125,23 +1125,23 @@
       <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -1150,23 +1150,23 @@
       <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -1175,23 +1175,23 @@
       <c r="W9" s="3"/>
     </row>
     <row r="10" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -1200,23 +1200,23 @@
       <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1225,23 +1225,23 @@
       <c r="W11" s="3"/>
     </row>
     <row r="12" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -1250,23 +1250,23 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -1275,23 +1275,23 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -1300,23 +1300,23 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -1325,23 +1325,23 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -1350,23 +1350,23 @@
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -1375,23 +1375,23 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -1400,23 +1400,23 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -1425,23 +1425,23 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -1450,23 +1450,23 @@
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -1475,23 +1475,23 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -3355,7 +3355,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3369,14 +3369,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4530,9 +4530,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14:C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4548,7 +4548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="13"/>
       <c r="C2" s="12"/>
@@ -4564,7 +4564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="12"/>
       <c r="C4" s="18"/>
@@ -4643,82 +4643,82 @@
       <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="47"/>
+      <c r="C13" s="40"/>
     </row>
     <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="38">
         <v>1</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+      <c r="A15" s="38">
         <v>2</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+      <c r="A16" s="38">
         <v>3</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
+      <c r="A17" s="38">
         <v>4</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45">
+      <c r="A18" s="38">
         <v>5</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="38">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
+      <c r="A19" s="38">
         <v>6</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45">
+      <c r="A20" s="39"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38">
         <v>2</v>
       </c>
     </row>
@@ -5764,9 +5764,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5784,18 +5784,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -5809,10 +5809,10 @@
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="35"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
@@ -5862,18 +5862,18 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -6020,48 +6020,48 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="52" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="53"/>
       <c r="C15" s="53"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51">
+      <c r="A16" s="41">
         <v>1</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="59">
+      <c r="C16" s="48">
         <v>3</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="42" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="7">
         <v>45924</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="43">
         <v>45667</v>
       </c>
       <c r="G16" s="7"/>
@@ -6070,22 +6070,22 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51">
+      <c r="A17" s="41">
         <v>2</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="59">
+      <c r="C17" s="48">
         <v>3</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="42" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="7">
         <v>45924</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="43">
         <v>45668</v>
       </c>
       <c r="G17" s="7"/>
@@ -6094,22 +6094,22 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51">
+      <c r="A18" s="41">
         <v>3</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="59">
+      <c r="C18" s="48">
         <v>2</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="42" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="7">
         <v>45924</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="43">
         <v>45669</v>
       </c>
       <c r="G18" s="7"/>
@@ -6118,22 +6118,22 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51">
+      <c r="A19" s="41">
         <v>4</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="59">
+      <c r="C19" s="48">
         <v>3</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="42" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="7">
         <v>45924</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="43">
         <v>45670</v>
       </c>
       <c r="G19" s="7"/>
@@ -6142,22 +6142,22 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51">
+      <c r="A20" s="41">
         <v>5</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="59">
+      <c r="C20" s="48">
         <v>5</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="42" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="7">
         <v>45924</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F20" s="43">
         <v>45671</v>
       </c>
       <c r="G20" s="7"/>
@@ -6166,22 +6166,22 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51">
+      <c r="A21" s="41">
         <v>6</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="59">
+      <c r="C21" s="48">
         <v>2</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="46" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="7">
         <v>45925</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="43">
         <v>45672</v>
       </c>
       <c r="G21" s="7"/>
@@ -6191,9 +6191,9 @@
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="58"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
